--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -680,7 +680,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="physical-findings"/&gt;
   &lt;display value="Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1160,7 +1160,7 @@
     <t>ICD-11</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1187,7 +1187,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1538,7 +1538,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="detailed-physical-findings"/&gt;
   &lt;display value="Detailed Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1939,7 +1939,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
